--- a/ads.xlsx
+++ b/ads.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
   <si>
     <t xml:space="preserve">Orangehouse main </t>
   </si>
@@ -31,16 +31,51 @@
   </si>
   <si>
     <t>HHAp Denver</t>
+  </si>
+  <si>
+    <t>http://onelink.to/4nvm6p];</t>
+  </si>
+  <si>
+    <t>https://orangehousellc.com</t>
+  </si>
+  <si>
+    <t>http://onelink.to/a7dahg</t>
+  </si>
+  <si>
+    <t>http://onelink.to/683r2b</t>
+  </si>
+  <si>
+    <t>http://onelink.to/4nvm6p</t>
+  </si>
+  <si>
+    <t>https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg</t>
+  </si>
+  <si>
+    <t>https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg</t>
+  </si>
+  <si>
+    <t>https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg</t>
+  </si>
+  <si>
+    <t>https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +98,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,115 +386,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE("&lt;a href=""",B2,""""," target=","""","_blank",""""," style=","""","margin: 0; padding-top: 0; text-align: center;","""","&gt;&lt;img src=","""",C2,""""," style=","""","width:100%","""","&gt;&lt;/a&gt;")</f>
+        <v>&lt;a href="https://orangehousellc.com" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K21" si="0">CONCATENATE("&lt;a href=""",B3,""""," target=","""","_blank",""""," style=","""","margin: 0; padding-top: 0; text-align: center;","""","&gt;&lt;img src=","""",C3,""""," style=","""","width:100%","""","&gt;&lt;/a&gt;")</f>
+        <v>&lt;a href="http://onelink.to/a7dahg" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/683r2b" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/4nvm6p" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="https://orangehousellc.com" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/a7dahg" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/683r2b" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/4nvm6p" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="https://orangehousellc.com" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/a7dahg" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/683r2b" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/4nvm6p" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="https://orangehousellc.com" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/a7dahg" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/683r2b" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/4nvm6p" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="https://orangehousellc.com" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/a7dahg" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/683r2b" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://onelink.to/4nvm6p];" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C17" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14"/>
+    <hyperlink ref="C21" r:id="rId15"/>
+    <hyperlink ref="C20" r:id="rId16"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ads.xlsx
+++ b/ads.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09099CDC-7F26-403E-B743-8DE7A762BA67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t xml:space="preserve">Orangehouse main </t>
   </si>
@@ -31,9 +38,6 @@
   </si>
   <si>
     <t>HHAp Denver</t>
-  </si>
-  <si>
-    <t>http://onelink.to/4nvm6p];</t>
   </si>
   <si>
     <t>https://orangehousellc.com</t>
@@ -63,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,37 +389,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE("&lt;img src=","""",C1,""""," style=","""","width:100%",""""," onclick=","""","window.open(","'",B1,"'",")","""","&gt;")</f>
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K2" t="str">
-        <f>CONCATENATE("&lt;a href=""",B2,""""," target=","""","_blank",""""," style=","""","margin: 0; padding-top: 0; text-align: center;","""","&gt;&lt;img src=","""",C2,""""," style=","""","width:100%","""","&gt;&lt;/a&gt;")</f>
-        <v>&lt;a href="https://orangehousellc.com" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K2:K20" si="0">CONCATENATE("&lt;img src=","""",C2,""""," style=","""","width:100%",""""," onclick=","""","window.open(","'",B2,"'",")","""","&gt;")</f>
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -424,13 +443,13 @@
         <v>10</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K21" si="0">CONCATENATE("&lt;a href=""",B3,""""," target=","""","_blank",""""," style=","""","margin: 0; padding-top: 0; text-align: center;","""","&gt;&lt;img src=","""",C3,""""," style=","""","width:100%","""","&gt;&lt;/a&gt;")</f>
-        <v>&lt;a href="http://onelink.to/a7dahg" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -440,42 +459,42 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/683r2b" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%" onclick="window.open('http://onelink.to/4nvm6p')"&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/4nvm6p" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://orangehousellc.com" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -485,12 +504,12 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/a7dahg" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -500,42 +519,42 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/683r2b" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%" onclick="window.open('http://onelink.to/4nvm6p')"&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/4nvm6p" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://orangehousellc.com" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -545,12 +564,12 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/a7dahg" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -560,42 +579,42 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/683r2b" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%" onclick="window.open('http://onelink.to/4nvm6p')"&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/4nvm6p" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://orangehousellc.com" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -605,12 +624,12 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/a7dahg" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -620,42 +639,42 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/683r2b" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%" onclick="window.open('http://onelink.to/4nvm6p')"&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/4nvm6p" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://orangehousellc.com" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -665,14 +684,14 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/a7dahg" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -680,42 +699,28 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/683r2b" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;a href="http://onelink.to/4nvm6p];" target="_blank" style="margin: 0; padding-top: 0; text-align: center;"&gt;&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%"&gt;&lt;/a&gt;</v>
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%" onclick="window.open('http://onelink.to/4nvm6p')"&gt;</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C17" r:id="rId12"/>
-    <hyperlink ref="C16" r:id="rId13"/>
-    <hyperlink ref="C19" r:id="rId14"/>
-    <hyperlink ref="C21" r:id="rId15"/>
-    <hyperlink ref="C20" r:id="rId16"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{2586400B-A358-467E-A54D-95491A5FD086}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ads.xlsx
+++ b/ads.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09099CDC-7F26-403E-B743-8DE7A762BA67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t xml:space="preserve">Orangehouse main </t>
   </si>
@@ -62,12 +61,21 @@
   </si>
   <si>
     <t>https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg</t>
+  </si>
+  <si>
+    <t>Happy Luckys</t>
+  </si>
+  <si>
+    <t>https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/5.jpg</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2U9GEsp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,20 +397,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +425,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -432,7 +440,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -447,7 +455,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -462,7 +470,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%" onclick="window.open('http://onelink.to/4nvm6p')"&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -477,7 +485,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -492,7 +500,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -507,22 +515,22 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%" onclick="window.open('http://onelink.to/4nvm6p')"&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/5.jpg" style="width:100%" onclick="window.open('http://bit.ly/2U9GEsp')"&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -537,7 +545,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -552,7 +560,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -567,7 +575,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -582,7 +590,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%" onclick="window.open('http://onelink.to/4nvm6p')"&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -597,7 +605,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -612,7 +620,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -627,7 +635,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -642,7 +650,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%" onclick="window.open('http://onelink.to/4nvm6p')"&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -657,7 +665,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -672,7 +680,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -687,7 +695,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -704,23 +712,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{2586400B-A358-467E-A54D-95491A5FD086}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C20" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ads.xlsx
+++ b/ads.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D7EEE3-C324-4891-8D9A-BDBA7DAEDA31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,20 +398,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +426,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -440,7 +441,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -455,7 +456,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -470,7 +471,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%" onclick="window.open('http://onelink.to/4nvm6p')"&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -485,7 +486,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -500,7 +501,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -515,7 +516,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -530,7 +531,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/5.jpg" style="width:100%" onclick="window.open('http://bit.ly/2U9GEsp')"&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -545,7 +546,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -560,7 +561,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -575,7 +576,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -590,7 +591,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%" onclick="window.open('http://onelink.to/4nvm6p')"&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -605,7 +606,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -620,7 +621,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -635,7 +636,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -650,7 +651,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/4.jpg" style="width:100%" onclick="window.open('http://onelink.to/4nvm6p')"&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -665,7 +666,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/1.jpg" style="width:100%" onclick="window.open('https://orangehousellc.com')"&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -680,7 +681,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/2.jpg" style="width:100%" onclick="window.open('http://onelink.to/a7dahg')"&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -695,7 +696,7 @@
         <v>&lt;img src="https://orangehousellc.com/OrangeHouse/FoCoMX/tracking/3.jpg" style="width:100%" onclick="window.open('http://onelink.to/683r2b')"&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -712,23 +713,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C12" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C14" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C20" r:id="rId15"/>
-    <hyperlink ref="C19" r:id="rId16"/>
-    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
